--- a/data/2016_data.xlsx
+++ b/data/2016_data.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00zh0\OneDrive\CAU\2020-1\자연어처리 및 정보검색\과제\Information-Retrieval\Team project\Sentiment-Analysis\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="9" documentId="11_8B1AFCC61651AFF412160BB5AB58CEF1512F5277" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{B59E9ACF-3533-40D6-B8BD-9869A9BC2DB4}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="936" yWindow="0" windowWidth="22104" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="277">
   <si>
     <t>title</t>
   </si>
@@ -25,10 +31,535 @@
     <t>lyric</t>
   </si>
   <si>
+    <t>duration</t>
+  </si>
+  <si>
     <t>Sorry</t>
   </si>
   <si>
+    <t>One Dance</t>
+  </si>
+  <si>
+    <t>Work</t>
+  </si>
+  <si>
+    <t>Stressed Out</t>
+  </si>
+  <si>
+    <t>Panda</t>
+  </si>
+  <si>
+    <t>Hello</t>
+  </si>
+  <si>
+    <t>Don't Let Me Down</t>
+  </si>
+  <si>
+    <t>Can't Stop The Feeling!</t>
+  </si>
+  <si>
+    <t>Closer</t>
+  </si>
+  <si>
+    <t>Cheap Thrills</t>
+  </si>
+  <si>
+    <t>7 Years</t>
+  </si>
+  <si>
+    <t>Needed Me</t>
+  </si>
+  <si>
+    <t>My House</t>
+  </si>
+  <si>
+    <t>I Took A Pill In Ibiza</t>
+  </si>
+  <si>
+    <t>Work From Home</t>
+  </si>
+  <si>
+    <t>This Is What You Came For</t>
+  </si>
+  <si>
+    <t>Cake By The Ocean</t>
+  </si>
+  <si>
+    <t>Me, Myself &amp; I</t>
+  </si>
+  <si>
+    <t>Ride</t>
+  </si>
+  <si>
+    <t>Heathens</t>
+  </si>
+  <si>
+    <t>Pillowtalk</t>
+  </si>
+  <si>
+    <t>Stitches</t>
+  </si>
+  <si>
+    <t>Hotline Bling</t>
+  </si>
+  <si>
+    <t>Cold Water</t>
+  </si>
+  <si>
+    <t>Send My Love (To Your New Lover)</t>
+  </si>
+  <si>
+    <t>Roses</t>
+  </si>
+  <si>
+    <t>Treat You Better</t>
+  </si>
+  <si>
+    <t>Too Good</t>
+  </si>
+  <si>
+    <t>Low Life</t>
+  </si>
+  <si>
+    <t>What Do You Mean?</t>
+  </si>
+  <si>
+    <t>The Hills</t>
+  </si>
+  <si>
+    <t>Just Like Fire</t>
+  </si>
+  <si>
+    <t>Broccoli</t>
+  </si>
+  <si>
+    <t>Don't</t>
+  </si>
+  <si>
+    <t>Dangerous Woman</t>
+  </si>
+  <si>
+    <t>Jumpman</t>
+  </si>
+  <si>
+    <t>I Hate U I Love U</t>
+  </si>
+  <si>
+    <t>Here</t>
+  </si>
+  <si>
+    <t>Same Old Love</t>
+  </si>
+  <si>
+    <t>Controlla</t>
+  </si>
+  <si>
+    <t>Like I'm Gonna Lose You</t>
+  </si>
+  <si>
+    <t>One Call Away</t>
+  </si>
+  <si>
+    <t>Let It Go</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Never Forget You</t>
+  </si>
+  <si>
+    <t>Let Me Love You</t>
+  </si>
+  <si>
+    <t>Don't Mind</t>
+  </si>
+  <si>
+    <t>H.O.L.Y.</t>
+  </si>
+  <si>
+    <t>We Don't Talk Anymore</t>
+  </si>
+  <si>
+    <t>Into You</t>
+  </si>
+  <si>
+    <t>Gold</t>
+  </si>
+  <si>
+    <t>Exchange</t>
+  </si>
+  <si>
+    <t>679</t>
+  </si>
+  <si>
+    <t>Oui</t>
+  </si>
+  <si>
+    <t>Hands To Myself</t>
+  </si>
+  <si>
+    <t>2 Phones</t>
+  </si>
+  <si>
+    <t>Starboy</t>
+  </si>
+  <si>
+    <t>For Free</t>
+  </si>
+  <si>
+    <t>Never Be Like You</t>
+  </si>
+  <si>
+    <t>In The Night</t>
+  </si>
+  <si>
+    <t>Me Too</t>
+  </si>
+  <si>
+    <t>Ex's &amp; Oh's</t>
+  </si>
+  <si>
+    <t>Die A Happy Man</t>
+  </si>
+  <si>
+    <t>White Iverson</t>
+  </si>
+  <si>
+    <t>Close</t>
+  </si>
+  <si>
+    <t>Unsteady</t>
+  </si>
+  <si>
+    <t>Sucker For Pain</t>
+  </si>
+  <si>
+    <t>Down In The DM</t>
+  </si>
+  <si>
+    <t>Luv</t>
+  </si>
+  <si>
+    <t>Can't Feel My Face</t>
+  </si>
+  <si>
+    <t>Hymn For The Weekend</t>
+  </si>
+  <si>
+    <t>Say It</t>
+  </si>
+  <si>
+    <t>Antidote</t>
+  </si>
+  <si>
+    <t>Lost Boy</t>
+  </si>
+  <si>
+    <t>Side To Side</t>
+  </si>
+  <si>
+    <t>Sit Still, Look Pretty</t>
+  </si>
+  <si>
+    <t>Wildest Dreams</t>
+  </si>
+  <si>
+    <t>Middle</t>
+  </si>
+  <si>
+    <t>On My Mind</t>
+  </si>
+  <si>
+    <t>Pop Style</t>
+  </si>
+  <si>
+    <t>When We Were Young</t>
+  </si>
+  <si>
+    <t>Hide Away</t>
+  </si>
+  <si>
+    <t>Lean On</t>
+  </si>
+  <si>
+    <t>I Know What You Did Last Summer</t>
+  </si>
+  <si>
+    <t>Back To Sleep</t>
+  </si>
+  <si>
+    <t>No Limit</t>
+  </si>
+  <si>
+    <t>Cut It</t>
+  </si>
+  <si>
+    <t>Really Really</t>
+  </si>
+  <si>
+    <t>All In My Head (Flex)</t>
+  </si>
+  <si>
+    <t>Starving</t>
+  </si>
+  <si>
+    <t>Adventure Of A Lifetime</t>
+  </si>
+  <si>
+    <t>Humble And Kind</t>
+  </si>
+  <si>
+    <t>Wicked</t>
+  </si>
+  <si>
+    <t>Tiimmy Turner</t>
+  </si>
+  <si>
+    <t>See You Again</t>
+  </si>
+  <si>
+    <t>Perfect</t>
+  </si>
+  <si>
     <t>Justin Bieber</t>
+  </si>
+  <si>
+    <t>Drake Featuring WizKid &amp; Kyla</t>
+  </si>
+  <si>
+    <t>Rihanna Featuring Drake</t>
+  </si>
+  <si>
+    <t>twenty one pilots</t>
+  </si>
+  <si>
+    <t>Desiigner</t>
+  </si>
+  <si>
+    <t>Adele</t>
+  </si>
+  <si>
+    <t>The Chainsmokers Featuring Daya</t>
+  </si>
+  <si>
+    <t>Justin Timberlake</t>
+  </si>
+  <si>
+    <t>The Chainsmokers Featuring Halsey</t>
+  </si>
+  <si>
+    <t>Sia Featuring Sean Paul</t>
+  </si>
+  <si>
+    <t>Lukas Graham</t>
+  </si>
+  <si>
+    <t>Rihanna</t>
+  </si>
+  <si>
+    <t>Flo Rida</t>
+  </si>
+  <si>
+    <t>Mike Posner</t>
+  </si>
+  <si>
+    <t>Fifth Harmony Featuring Ty Dolla $ign</t>
+  </si>
+  <si>
+    <t>Calvin Harris Featuring Rihanna</t>
+  </si>
+  <si>
+    <t>DNCE</t>
+  </si>
+  <si>
+    <t>G-Eazy x Bebe Rexha</t>
+  </si>
+  <si>
+    <t>Zayn</t>
+  </si>
+  <si>
+    <t>Shawn Mendes</t>
+  </si>
+  <si>
+    <t>Drake</t>
+  </si>
+  <si>
+    <t>Major Lazer Featuring Justin Bieber &amp; MO</t>
+  </si>
+  <si>
+    <t>The Chainsmokers Featuring Rozes</t>
+  </si>
+  <si>
+    <t>Drake Featuring Rihanna</t>
+  </si>
+  <si>
+    <t>Future Featuring The Weeknd</t>
+  </si>
+  <si>
+    <t>The Weeknd</t>
+  </si>
+  <si>
+    <t>P!nk</t>
+  </si>
+  <si>
+    <t>D.R.A.M. Featuring Lil Yachty</t>
+  </si>
+  <si>
+    <t>Bryson Tiller</t>
+  </si>
+  <si>
+    <t>Ariana Grande</t>
+  </si>
+  <si>
+    <t>Drake &amp; Future</t>
+  </si>
+  <si>
+    <t>gnash Featuring Olivia O'Brien</t>
+  </si>
+  <si>
+    <t>Alessia Cara</t>
+  </si>
+  <si>
+    <t>Selena Gomez</t>
+  </si>
+  <si>
+    <t>Meghan Trainor Featuring John Legend</t>
+  </si>
+  <si>
+    <t>Charlie Puth</t>
+  </si>
+  <si>
+    <t>James Bay</t>
+  </si>
+  <si>
+    <t>Meghan Trainor</t>
+  </si>
+  <si>
+    <t>Zara Larsson &amp; MNEK</t>
+  </si>
+  <si>
+    <t>DJ Snake Featuring Justin Bieber</t>
+  </si>
+  <si>
+    <t>Kent Jones</t>
+  </si>
+  <si>
+    <t>Florida Georgia Line</t>
+  </si>
+  <si>
+    <t>Charlie Puth Featuring Selena Gomez</t>
+  </si>
+  <si>
+    <t>Kiiara</t>
+  </si>
+  <si>
+    <t>Fetty Wap Featuring Remy Boyz</t>
+  </si>
+  <si>
+    <t>Jeremih</t>
+  </si>
+  <si>
+    <t>Kevin Gates</t>
+  </si>
+  <si>
+    <t>The Weeknd Featuring Daft Punk</t>
+  </si>
+  <si>
+    <t>DJ Khaled Featuring Drake</t>
+  </si>
+  <si>
+    <t>Flume Featuring Kai</t>
+  </si>
+  <si>
+    <t>Elle King</t>
+  </si>
+  <si>
+    <t>Thomas Rhett</t>
+  </si>
+  <si>
+    <t>Post Malone</t>
+  </si>
+  <si>
+    <t>Nick Jonas Featuring Tove Lo</t>
+  </si>
+  <si>
+    <t>X Ambassadors</t>
+  </si>
+  <si>
+    <t>Lil Wayne, Wiz Khalifa &amp; Imagine Dragons With Logic &amp; Ty Dolla $ign Feat. X Ambassadors</t>
+  </si>
+  <si>
+    <t>Yo Gotti Featuring Nicki Minaj</t>
+  </si>
+  <si>
+    <t>Tory Lanez</t>
+  </si>
+  <si>
+    <t>Beyonce</t>
+  </si>
+  <si>
+    <t>Coldplay</t>
+  </si>
+  <si>
+    <t>Travis Scott</t>
+  </si>
+  <si>
+    <t>Ruth B</t>
+  </si>
+  <si>
+    <t>Ariana Grande Featuring Nicki Minaj</t>
+  </si>
+  <si>
+    <t>Daya</t>
+  </si>
+  <si>
+    <t>Taylor Swift</t>
+  </si>
+  <si>
+    <t>DJ Snake Featuring Bipolar Sunshine</t>
+  </si>
+  <si>
+    <t>Ellie Goulding</t>
+  </si>
+  <si>
+    <t>Drake Featuring The Throne</t>
+  </si>
+  <si>
+    <t>Major Lazer &amp; DJ Snake Featuring MO</t>
+  </si>
+  <si>
+    <t>Shawn Mendes &amp; Camila Cabello</t>
+  </si>
+  <si>
+    <t>Silento</t>
+  </si>
+  <si>
+    <t>Chris Brown</t>
+  </si>
+  <si>
+    <t>Usher Featuring Young Thug</t>
+  </si>
+  <si>
+    <t>O.T. Genasis Featuring Young Dolph</t>
+  </si>
+  <si>
+    <t>Fifth Harmony Featuring Fetty Wap</t>
+  </si>
+  <si>
+    <t>Hailee Steinfeld &amp; Grey Featuring Zedd</t>
+  </si>
+  <si>
+    <t>Tim McGraw</t>
+  </si>
+  <si>
+    <t>Future</t>
+  </si>
+  <si>
+    <t>Wiz Khalifa Featuring Charlie Puth</t>
+  </si>
+  <si>
+    <t>One Direction</t>
   </si>
   <si>
     <t>You gotta go and get angry at all of my honesty
@@ -72,12 +603,6 @@
 Sorry
 Yeah I know that I let you down
 Is it too late to say I'm sorry now?</t>
-  </si>
-  <si>
-    <t>One Dance</t>
-  </si>
-  <si>
-    <t>Drake Featuring WizKid &amp; Kyla</t>
   </si>
   <si>
     <t>Baby I like your style
@@ -146,12 +671,6 @@
 Got a Hennessy in my hand
 One more time 'fore I go
 Higher powers taking a hold on me</t>
-  </si>
-  <si>
-    <t>Work</t>
-  </si>
-  <si>
-    <t>Rihanna Featuring Drake</t>
   </si>
   <si>
     <t>Work, work, work, work, work, work
@@ -250,12 +769,6 @@
 Mmm-mmm-mmm</t>
   </si>
   <si>
-    <t>Stressed Out</t>
-  </si>
-  <si>
-    <t>twenty one pilots</t>
-  </si>
-  <si>
     <t>I wish I found some better sounds
 No one's ever heard
 I wish I had a better voiceThat sang some better words
@@ -335,12 +848,6 @@
 Used to dream of outer space
 But now they're laughing at our face saying
 "Wake up, you need to make money", yeah</t>
-  </si>
-  <si>
-    <t>Panda</t>
-  </si>
-  <si>
-    <t>Desiigner</t>
   </si>
   <si>
     <t>You are now listening to the hottest Producer
@@ -462,12 +969,6 @@
 Panda, Panda, Panda, Panda, Panda</t>
   </si>
   <si>
-    <t>Hello</t>
-  </si>
-  <si>
-    <t>Adele</t>
-  </si>
-  <si>
     <t>Hello, it's me
 I was wondering if after all these years you'd like to meet
 To go over everythingThey say that time's supposed to heal ya
@@ -511,12 +1012,6 @@
 At least I can say that I've tried
 To tell you I'm sorry for breaking your heart
 But it don't matter, it clearly doesn't tear you apart anymore</t>
-  </si>
-  <si>
-    <t>Don't Let Me Down</t>
-  </si>
-  <si>
-    <t>The Chainsmokers Featuring Daya</t>
   </si>
   <si>
     <t>Crashing, hit a wall
@@ -568,12 +1063,6 @@
 Don't let me down, no
 Don't let me down
 Don't let me down, down, down</t>
-  </si>
-  <si>
-    <t>Can't Stop The Feeling!</t>
-  </si>
-  <si>
-    <t>Justin Timberlake</t>
   </si>
   <si>
     <t>I got this feeling inside my bones
@@ -652,12 +1141,6 @@
 Got this feeling in my body, come on</t>
   </si>
   <si>
-    <t>Closer</t>
-  </si>
-  <si>
-    <t>The Chainsmokers Featuring Halsey</t>
-  </si>
-  <si>
     <t>Hey, I was doing just fine before I met you
 I drink too much, and that's an issue, but I'm okay
 Hey, you tell your friends it was nice to meet themBut I hope I never see them again
@@ -715,12 +1198,6 @@
 No, we ain't ever getting older
 We ain't ever getting older
 No, we ain't ever getting older</t>
-  </si>
-  <si>
-    <t>Cheap Thrills</t>
-  </si>
-  <si>
-    <t>Sia Featuring Sean Paul</t>
   </si>
   <si>
     <t>Up with it, girl
@@ -812,12 +1289,6 @@
 (I love cheap thrills!)</t>
   </si>
   <si>
-    <t>7 Years</t>
-  </si>
-  <si>
-    <t>Lukas Graham</t>
-  </si>
-  <si>
     <t>Once I was seven years old, my mama told me
 Go make yourself some friends or you'll be lonely
 Once I was seven years oldIt was a big big world, but we thought we were bigger
@@ -869,12 +1340,6 @@
 Once I was seven years old</t>
   </si>
   <si>
-    <t>Needed Me</t>
-  </si>
-  <si>
-    <t>Rihanna</t>
-  </si>
-  <si>
     <t>Mustard on the beat ho!
 I was good on my own, that's the way it was, that's the way it wasYou was good on the low for a faded fuck, on some faded love
 Shit, what the fuck you complaining for?
@@ -913,12 +1378,6 @@
 To feel a little more, and give a little less
 Know you hate to confess
 But baby ooo, you needed me</t>
-  </si>
-  <si>
-    <t>My House</t>
-  </si>
-  <si>
-    <t>Flo Rida</t>
   </si>
   <si>
     <t>You spin my head right round, right round
@@ -987,18 +1446,6 @@
 When you go down, when you go down down
 You spin my head right round, right round
 When you go down, when you go down down</t>
-  </si>
-  <si>
-    <t>I Took A Pill In Ibiza</t>
-  </si>
-  <si>
-    <t>Mike Posner</t>
-  </si>
-  <si>
-    <t>Work From Home</t>
-  </si>
-  <si>
-    <t>Fifth Harmony Featuring Ty Dolla $ign</t>
   </si>
   <si>
     <t>I ain't worried 'bout nothin'
@@ -1073,12 +1520,6 @@
 Yeah, we can work from home, oh-oh, oh, yeah</t>
   </si>
   <si>
-    <t>This Is What You Came For</t>
-  </si>
-  <si>
-    <t>Calvin Harris Featuring Rihanna</t>
-  </si>
-  <si>
     <t>Baby, this is what you came for
 Lightning strikes every time she moves
 And everybody's watching herBut she's looking at you, ooh, ooh
@@ -1140,12 +1581,6 @@
 You, ooh, ooh, ooh</t>
   </si>
   <si>
-    <t>Cake By The Ocean</t>
-  </si>
-  <si>
-    <t>DNCE</t>
-  </si>
-  <si>
     <t>Oh, no
 See you walking round like it's a funeral
 Not so serious, girl; why those feet cold?We just getting started; don't you tiptoe, tiptoe, ah
@@ -1193,15 +1628,6 @@
 Funfetti, I'm ready; I need it every night
 Red velvet, vanilla, chocolate in my life
 I-I-I-I-I-I keep on hoping we'll eat cake by the ocean.</t>
-  </si>
-  <si>
-    <t>Me, Myself &amp; I</t>
-  </si>
-  <si>
-    <t>G-Eazy x Bebe Rexha</t>
-  </si>
-  <si>
-    <t>Ride</t>
   </si>
   <si>
     <t>I just wanna stay in the sun where I find
@@ -1268,9 +1694,6 @@
 I've been thinking too much (Help me)</t>
   </si>
   <si>
-    <t>Heathens</t>
-  </si>
-  <si>
     <t>All my friends are heathens, take it slow
 Wait for them to ask you who you know
 Please don't make any sudden movesYou don't know the half of the abuse
@@ -1313,12 +1736,6 @@
 I tried to warn you just to stay away
 And now they're outside ready to bust
 It looks like you might be one of us</t>
-  </si>
-  <si>
-    <t>Pillowtalk</t>
-  </si>
-  <si>
-    <t>Zayn</t>
   </si>
   <si>
     <t>Climb on board
@@ -1371,12 +1788,6 @@
 Fucking and fighting on
 It's our paradise and it's our war zone
 It's our paradise and it's our war zone</t>
-  </si>
-  <si>
-    <t>Stitches</t>
-  </si>
-  <si>
-    <t>Shawn Mendes</t>
   </si>
   <si>
     <t>I thought that I'd been hurt before
@@ -1438,12 +1849,6 @@
 I'll be needing stitches
 And now that I'm without your kisses
 I'll be needing stitches</t>
-  </si>
-  <si>
-    <t>Hotline Bling</t>
-  </si>
-  <si>
-    <t>Drake</t>
   </si>
   <si>
     <t>You used to call me on my
@@ -1511,12 +1916,6 @@
 Ever since I left the city...</t>
   </si>
   <si>
-    <t>Cold Water</t>
-  </si>
-  <si>
-    <t>Major Lazer Featuring Justin Bieber &amp; MO</t>
-  </si>
-  <si>
     <t>Everybody gets high sometimes, you know
 What else can we do when we're feeling low?
 So take a deep breath and let it goYou shouldn't be drowning on your own
@@ -1556,9 +1955,6 @@
 I'll be your lifeline tonight
 I won't let go
 I won't let go</t>
-  </si>
-  <si>
-    <t>Send My Love (To Your New Lover)</t>
   </si>
   <si>
     <t>Just the guitar? Okay, cool...
@@ -1625,12 +2021,6 @@
 We both know we ain't kids no more...</t>
   </si>
   <si>
-    <t>Roses</t>
-  </si>
-  <si>
-    <t>The Chainsmokers Featuring Rozes</t>
-  </si>
-  <si>
     <t>Take it slow, but it's not typical
 He already knows that my love is fire
 His heart was a stone, but then his hands roamI turned him to gold and it took him higher
@@ -1667,9 +2057,6 @@
 Say you'll never let me go
 Say you'll never let me go
 Say you'll never let me go</t>
-  </si>
-  <si>
-    <t>Treat You Better</t>
   </si>
   <si>
     <t>I won't lie to you
@@ -1714,12 +2101,6 @@
 Better than he can
 Better than he can
 Better than he can</t>
-  </si>
-  <si>
-    <t>Too Good</t>
-  </si>
-  <si>
-    <t>Drake Featuring Rihanna</t>
   </si>
   <si>
     <t>Oh yeah, yeah, yeah
@@ -1799,12 +2180,6 @@
 Gyal yo pum pum good and yuh fit
 Mi wi give you everything weh deh in my wallet
 And in my pocket</t>
-  </si>
-  <si>
-    <t>Low Life</t>
-  </si>
-  <si>
-    <t>Future Featuring The Weeknd</t>
   </si>
   <si>
     <t>Everybody getting high
@@ -1925,9 +2300,6 @@
 'Bout to fuck this club, what else?</t>
   </si>
   <si>
-    <t>What Do You Mean?</t>
-  </si>
-  <si>
     <t>What do you mean? Oh, oh
 When you nod your head yes
 But you wanna say noWhat do you mean? Hey-ey
@@ -1997,12 +2369,6 @@
 What do you mean?</t>
   </si>
   <si>
-    <t>The Hills</t>
-  </si>
-  <si>
-    <t>The Weeknd</t>
-  </si>
-  <si>
     <t>Your man on the road, he doin' promo
 You said, "Keep our business on the low-low"
 I'm just tryna get you out the friend zoneCause you look even better than the photos
@@ -2056,12 +2422,6 @@
 Yene konjo, ewedihalehu
 Yene fikir, fikir, fikir, fikir
 Yene fikir, fikir, fikir, fikir</t>
-  </si>
-  <si>
-    <t>Just Like Fire</t>
-  </si>
-  <si>
-    <t>P!nk</t>
   </si>
   <si>
     <t>I know that I'm running out of time
@@ -2131,12 +2491,6 @@
 Run it, run it, run it
 Just like fire
 Run it, run it, run it</t>
-  </si>
-  <si>
-    <t>Broccoli</t>
-  </si>
-  <si>
-    <t>D.R.A.M. Featuring Lil Yachty</t>
   </si>
   <si>
     <t>Ain't no tellin' what I'm finna be on, ayy, ayy
@@ -2209,12 +2563,6 @@
 I'm a dirty dog, I did it sleazily (yeah)</t>
   </si>
   <si>
-    <t>Don't</t>
-  </si>
-  <si>
-    <t>Bryson Tiller</t>
-  </si>
-  <si>
     <t>Don't, don't play with her, don't be dishonest (Ayy)
 Still not understandin' this logic (Ayy)
 I'm back and I'm better (And I'm better)I want you bad as ever
@@ -2270,12 +2618,6 @@
 Spit fire in a world so cold
 H-Town got a nigga so throwed
 Don't</t>
-  </si>
-  <si>
-    <t>Dangerous Woman</t>
-  </si>
-  <si>
-    <t>Ariana Grande</t>
   </si>
   <si>
     <t>Don't need permission
@@ -2337,12 +2679,6 @@
 (Somethin' 'bout, somethin' 'bout, somethin' 'bout you)</t>
   </si>
   <si>
-    <t>Jumpman</t>
-  </si>
-  <si>
-    <t>Drake &amp; Future</t>
-  </si>
-  <si>
     <t>If Young Metro don't trust you I'm gon' shoot you
 Yeah, yeah
 HalloweenTaliban, Taliban
@@ -2400,12 +2736,6 @@
 They just spent like two or three weeks out the country
 Them boys up to something, they just not just bluffing
 Jumpman, Jumpman, Jumpman, them boys up to something</t>
-  </si>
-  <si>
-    <t>I Hate U I Love U</t>
-  </si>
-  <si>
-    <t>gnash Featuring Olivia O'Brien</t>
   </si>
   <si>
     <t>Feeling used but I'm still missing you
@@ -2482,12 +2812,6 @@
 And I'll never be her</t>
   </si>
   <si>
-    <t>Here</t>
-  </si>
-  <si>
-    <t>Alessia Cara</t>
-  </si>
-  <si>
     <t>I guess for now you've got the last laugh
 I'm sorry if I seem uninterestedOr I'm not listening, or I'm indifferent
 Truly I ain't got no business here
@@ -2547,12 +2871,6 @@
 (Oh oh, oh oh, oh oh)</t>
   </si>
   <si>
-    <t>Same Old Love</t>
-  </si>
-  <si>
-    <t>Selena Gomez</t>
-  </si>
-  <si>
     <t>Take away your things and go
 You can't take back what you said, I know
 I've heard it all before, at least a million timesI'm not one to forget, you know
@@ -2596,9 +2914,6 @@
 I'm so sick of that same old love, the kind that breaks your heart
 Oh, (that same old love)
 Oh, (that same old love)</t>
-  </si>
-  <si>
-    <t>Controlla</t>
   </si>
   <si>
     <t>Right, my yiy just changed
@@ -2666,12 +2981,6 @@
 Zaga</t>
   </si>
   <si>
-    <t>Like I'm Gonna Lose You</t>
-  </si>
-  <si>
-    <t>Meghan Trainor Featuring John Legend</t>
-  </si>
-  <si>
     <t>I found myself dreaming in silver and gold
 Like a scene from a movie that every broken heart knows
 We were walking on moonlight, and you pulled me closeSplit second and you disappeared and then I was all alone
@@ -2716,12 +3025,6 @@
 Like I'm gonna lose you</t>
   </si>
   <si>
-    <t>One Call Away</t>
-  </si>
-  <si>
-    <t>Charlie Puth</t>
-  </si>
-  <si>
     <t>I'm only one call away
 I'll be there to save the day
 Superman got nothing on meI'm only one call away
@@ -2759,12 +3062,6 @@
 Superman got nothing on me
 I'm only one call away
 I'm only one call away</t>
-  </si>
-  <si>
-    <t>Let It Go</t>
-  </si>
-  <si>
-    <t>James Bay</t>
   </si>
   <si>
     <t>From walking home and talking loads
@@ -2820,12 +3117,6 @@
 Why don't you be you
 And I'll be me?
 And I'll be me</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Meghan Trainor</t>
   </si>
   <si>
     <t>I think it's so cute and I think it's so sweet!
@@ -2939,12 +3230,6 @@
 (Nah to the ah to the, no, no, no...)</t>
   </si>
   <si>
-    <t>Never Forget You</t>
-  </si>
-  <si>
-    <t>Zara Larsson &amp; MNEK</t>
-  </si>
-  <si>
     <t>I used to be so happy
 But without you here I feel so low
 I watched you as you left but I can never seem to let you go'Cause once upon a time you were my everything
@@ -3010,12 +3295,6 @@
 'Til the day I die.</t>
   </si>
   <si>
-    <t>Let Me Love You</t>
-  </si>
-  <si>
-    <t>DJ Snake Featuring Justin Bieber</t>
-  </si>
-  <si>
     <t>I used to believe
 We were burning on the edge of something beautiful
 Something beautifulSelling a dream
@@ -3073,12 +3352,6 @@
 I won't give up, nah-nah-nah
 Let me love you
 Let me love you</t>
-  </si>
-  <si>
-    <t>Don't Mind</t>
-  </si>
-  <si>
-    <t>Kent Jones</t>
   </si>
   <si>
     <t>Hola, Hola Ma
@@ -3172,12 +3445,6 @@
 No matter where I go you know I love them all</t>
   </si>
   <si>
-    <t>H.O.L.Y.</t>
-  </si>
-  <si>
-    <t>Florida Georgia Line</t>
-  </si>
-  <si>
     <t>When the sun had left and the winter came
 And the sky fall could only bring the rain
 I sat in darkness, all broken heartedI couldn't find a day I didn't feel alone
@@ -3211,15 +3478,6 @@
 You're the healing hands where it used to hurt
 You're my saving grace, you're my kind of church
 You're Holy</t>
-  </si>
-  <si>
-    <t>We Don't Talk Anymore</t>
-  </si>
-  <si>
-    <t>Charlie Puth Featuring Selena Gomez</t>
-  </si>
-  <si>
-    <t>Into You</t>
   </si>
   <si>
     <t>I'm so into you
@@ -3318,12 +3576,6 @@
 Into you</t>
   </si>
   <si>
-    <t>Gold</t>
-  </si>
-  <si>
-    <t>Kiiara</t>
-  </si>
-  <si>
     <t>Roof was fallin', let me, love me, fallin', I just know
 Roof was fallin', let me, love me, fallin', I just know
 Roof was fallin', let me, love me, fallin', I just knowRoof was fallin', let me, love me
@@ -3399,9 +3651,6 @@
 Without ever letting you know</t>
   </si>
   <si>
-    <t>Exchange</t>
-  </si>
-  <si>
     <t>This what happen when I think about you
 I get in my feelings, yeah
 I start reminiscing, yeahNext time around, fuck I want it to be different, yeah
@@ -3452,12 +3701,6 @@
 I was scrollin' through the 'Gram, girl, I had to follow you
 Say what's up with you?
 You got my soul</t>
-  </si>
-  <si>
-    <t>679</t>
-  </si>
-  <si>
-    <t>Fetty Wap Featuring Remy Boyz</t>
   </si>
   <si>
     <t>Yeaaah baby, 17
@@ -3532,12 +3775,6 @@
 Yeaah, yeaaah</t>
   </si>
   <si>
-    <t>Oui</t>
-  </si>
-  <si>
-    <t>Jeremih</t>
-  </si>
-  <si>
     <t>Ahh ahh ahh ahh ahh
 Ahh ahh ahh ahh ahh
 Ahh ahh ahh ahh ahh.I think about all the time
@@ -3593,9 +3830,6 @@
 Hey, there's no oui without you and I</t>
   </si>
   <si>
-    <t>Hands To Myself</t>
-  </si>
-  <si>
     <t>Can't keep my hands to myself
 No matter how hard I'm trying to
 I want you all to myselfYour metaphorical gin and juice
@@ -3646,12 +3880,6 @@
 Can't keep my hands to myself
 Give me your all and nothing else
 Can't keep my hands to myself</t>
-  </si>
-  <si>
-    <t>2 Phones</t>
-  </si>
-  <si>
-    <t>Kevin Gates</t>
   </si>
   <si>
     <t>Hello? What the deal? Bet
@@ -3742,12 +3970,6 @@
 Trap jumpin' I'm ring, ring, ringin', ring, ring, ringin'</t>
   </si>
   <si>
-    <t>Starboy</t>
-  </si>
-  <si>
-    <t>The Weeknd Featuring Daft Punk</t>
-  </si>
-  <si>
     <t>I'm tryna put you in the worst mood, ah
 P1 cleaner than your church shoes, ah
 Milli point two just to hurt you, ahAll red Lamb' just to tease you, ah
@@ -3811,12 +4033,6 @@
 I'm a motherfucking Starboy
 Look what you've done
 I'm a motherfucking Starboy</t>
-  </si>
-  <si>
-    <t>For Free</t>
-  </si>
-  <si>
-    <t>DJ Khaled Featuring Drake</t>
   </si>
   <si>
     <t>Would you fuck me for free?
@@ -3886,12 +4102,6 @@
 Bless up</t>
   </si>
   <si>
-    <t>Never Be Like You</t>
-  </si>
-  <si>
-    <t>Flume Featuring Kai</t>
-  </si>
-  <si>
     <t>What I would do to take away this fear of being loved
 Allegiance to the pain
 Now I fucked up and I miss youI'll never be like you
@@ -3957,9 +4167,6 @@
 Ooh, never be like you</t>
   </si>
   <si>
-    <t>In The Night</t>
-  </si>
-  <si>
     <t>All alone she was living
 In a world without an end or beginning
 Babygirl was living life for the feelingBut I don't mind, I don't mind
@@ -3998,9 +4205,6 @@
 In the night when she comes crawling
 Dollar bills and tears keep falling down her face
 She'll never walk away (I don't think you understand)</t>
-  </si>
-  <si>
-    <t>Me Too</t>
   </si>
   <si>
     <t>Ow!
@@ -4060,12 +4264,6 @@
 I'd wanna be me too</t>
   </si>
   <si>
-    <t>Ex's &amp; Oh's</t>
-  </si>
-  <si>
-    <t>Elle King</t>
-  </si>
-  <si>
     <t>Well, I had me a boy, turned him into a man
 I showed him all the things that he didn't understand
 Whoa, and then I let him goNow, there's one in California who's been cursing my name
@@ -4109,12 +4307,6 @@
 Ex's and oh's</t>
   </si>
   <si>
-    <t>Die A Happy Man</t>
-  </si>
-  <si>
-    <t>Thomas Rhett</t>
-  </si>
-  <si>
     <t>Baby last night was hands down
 One of the best nights
 That I've had no doubtBetween the bottle of wine
@@ -4150,12 +4342,6 @@
 Oh I could die a happy man
 You know I could, girl
 I could die, I could die a happy man, hmmm</t>
-  </si>
-  <si>
-    <t>White Iverson</t>
-  </si>
-  <si>
-    <t>Post Malone</t>
   </si>
   <si>
     <t>Double OT
@@ -4215,12 +4401,6 @@
 Spendin', I'm spendin' all my fuckin' pay</t>
   </si>
   <si>
-    <t>Close</t>
-  </si>
-  <si>
-    <t>Nick Jonas Featuring Tove Lo</t>
-  </si>
-  <si>
     <t>Oh damn, oh damn, oh damn
 I'm so perplexed
 With just one breath, I'm locked inOh damn, oh damn, oh damn
@@ -4271,12 +4451,6 @@
 Oh, I want you close, and close ain't close enough, no</t>
   </si>
   <si>
-    <t>Unsteady</t>
-  </si>
-  <si>
-    <t>X Ambassadors</t>
-  </si>
-  <si>
     <t>Hold, hold on, hold onto me
 'Cause I'm a little unsteady
 A little unsteadyHold, hold on, hold onto me
@@ -4309,12 +4483,6 @@
 Hold, hold on, hold onto me
 'Cause I'm a little unsteady
 A little unsteady</t>
-  </si>
-  <si>
-    <t>Sucker For Pain</t>
-  </si>
-  <si>
-    <t>Lil Wayne, Wiz Khalifa &amp; Imagine Dragons With Logic &amp; Ty Dolla $ign Feat. X Ambassadors</t>
   </si>
   <si>
     <t>I torture you
@@ -4403,18 +4571,6 @@
 For more pain</t>
   </si>
   <si>
-    <t>Down In The DM</t>
-  </si>
-  <si>
-    <t>Yo Gotti Featuring Nicki Minaj</t>
-  </si>
-  <si>
-    <t>Luv</t>
-  </si>
-  <si>
-    <t>Tory Lanez</t>
-  </si>
-  <si>
     <t>We ah sip the Henny for the day baby
 Bad man, we no stray baby
 Oops I done fell for your way babyI know girl but, everyone falls...
@@ -4475,9 +4631,6 @@
 Mmm, ah, mmm, ah, mmm, neefi let me touch you
 Mmm, ah, mmm, ah, mmm, neefi let me love you
 Mmm, ah, mmm, ah, mmm, neefi let me love you, yeah</t>
-  </si>
-  <si>
-    <t>Beyonce</t>
   </si>
   <si>
     <t>Hello, hello, baby
@@ -4566,9 +4719,6 @@
 Please check the number, or try your call again</t>
   </si>
   <si>
-    <t>Can't Feel My Face</t>
-  </si>
-  <si>
     <t>And I know she'll be the death of me, at least we'll both be numb
 And she'll always get the best of me, the worst is yet to come
 But at least we'll both be beautiful and stay forever youngThis I know, yeah, this I know
@@ -4604,12 +4754,6 @@
 But I love it, but I love it, oh
 I can't feel my face when I'm with you
 But I love it, but I love it, oh</t>
-  </si>
-  <si>
-    <t>Hymn For The Weekend</t>
-  </si>
-  <si>
-    <t>Coldplay</t>
   </si>
   <si>
     <t>Drink from me, drink from me (oh-ah)
@@ -4671,9 +4815,6 @@
 That we shoot across the...
 That we shoot across the sky
 That we shoot across the...</t>
-  </si>
-  <si>
-    <t>Say It</t>
   </si>
   <si>
     <t>Just keepin' it honest
@@ -4754,12 +4895,6 @@
 You make me come thru, I get so close to you</t>
   </si>
   <si>
-    <t>Antidote</t>
-  </si>
-  <si>
-    <t>Travis Scott</t>
-  </si>
-  <si>
     <t>Don't you open up that window
 Don't you let out that antidote (Yeah)
 Poppin' pills is all we know (Ooh)In the hills is all we know (Hollywood)
@@ -4834,12 +4969,6 @@
 Don't you let out that antidote</t>
   </si>
   <si>
-    <t>Lost Boy</t>
-  </si>
-  <si>
-    <t>Ruth B</t>
-  </si>
-  <si>
     <t>There was a time when I was alone
 No where to go and no place to call home
 My only friend was the man in the moonAnd even sometimes he would go away too
@@ -4897,12 +5026,6 @@
 And Lost Boys like me are free
 Neverland is home to Lost Boys like me
 And Lost Boys like me are free</t>
-  </si>
-  <si>
-    <t>Side To Side</t>
-  </si>
-  <si>
-    <t>Ariana Grande Featuring Nicki Minaj</t>
   </si>
   <si>
     <t>I've been here all night (Ariana)
@@ -4967,12 +5090,6 @@
 Wrist icicle, ride dick bicycle
 Come through yo, get you this type of blow
 If you wanna menage I got a tricycle</t>
-  </si>
-  <si>
-    <t>Sit Still, Look Pretty</t>
-  </si>
-  <si>
-    <t>Daya</t>
   </si>
   <si>
     <t>Could dress up, to get love
@@ -5042,12 +5159,6 @@
 Sit still, look pretty</t>
   </si>
   <si>
-    <t>Wildest Dreams</t>
-  </si>
-  <si>
-    <t>Taylor Swift</t>
-  </si>
-  <si>
     <t>He said, "Let's get out of this town
 Drive out of the city, away from the crowds"
 I thought heaven can't help me nowNothing lasts forever, but this is gonna take me down
@@ -5104,12 +5215,6 @@
 In your wildest dreams, ah-ha</t>
   </si>
   <si>
-    <t>Middle</t>
-  </si>
-  <si>
-    <t>DJ Snake Featuring Bipolar Sunshine</t>
-  </si>
-  <si>
     <t>Staring at two different views on your window ledge
 Coffee is going cold, it's like time froze
 There you go wishing floating down our wishing wellIt's like I'm always causing problems, causing hell
@@ -5140,12 +5245,6 @@
 (You)
 (Thank the children)
 (Just thank the children)</t>
-  </si>
-  <si>
-    <t>On My Mind</t>
-  </si>
-  <si>
-    <t>Ellie Goulding</t>
   </si>
   <si>
     <t>Oh
@@ -5216,12 +5315,6 @@
 (Ah, ah, ah, ah, ahh, ah)</t>
   </si>
   <si>
-    <t>Pop Style</t>
-  </si>
-  <si>
-    <t>Drake Featuring The Throne</t>
-  </si>
-  <si>
     <t>Yeah, yeah
 Dropped outta school now we dumb rich (dumb rich)This sound like some forty-three-oh-one shit (one shit)
 All my niggas wanna do is pop style (pop style)
@@ -5266,9 +5359,6 @@
 This sound like some forty-three-oh-one shit (one shit)
 All my niggas wanna do is pop style (pop style)
 Turn my birthday into a lifestyle (lifestyle)</t>
-  </si>
-  <si>
-    <t>When We Were Young</t>
   </si>
   <si>
     <t>Everybody loves the things you do
@@ -5340,9 +5430,6 @@
 When we were young</t>
   </si>
   <si>
-    <t>Hide Away</t>
-  </si>
-  <si>
     <t>Boys seem to like the girls
 Who laugh at anything
 The ones who get undressedBefore the second date
@@ -5394,12 +5481,6 @@
 Hey!</t>
   </si>
   <si>
-    <t>Lean On</t>
-  </si>
-  <si>
-    <t>Major Lazer &amp; DJ Snake Featuring MO</t>
-  </si>
-  <si>
     <t>Do you recall, not long ago
 We would walk on the sidewalk?
 Innocent, remember?All we did was care for each other
@@ -5446,12 +5527,6 @@
 We need someone to lean on
 Blow a kiss, fire a gun
 All we need is somebody to lean on</t>
-  </si>
-  <si>
-    <t>I Know What You Did Last Summer</t>
-  </si>
-  <si>
-    <t>Shawn Mendes &amp; Camila Cabello</t>
   </si>
   <si>
     <t>Ah-ah, he-ey
@@ -5547,18 +5622,6 @@
 I know</t>
   </si>
   <si>
-    <t>Watch Me</t>
-  </si>
-  <si>
-    <t>Silento</t>
-  </si>
-  <si>
-    <t>Back To Sleep</t>
-  </si>
-  <si>
-    <t>Chris Brown</t>
-  </si>
-  <si>
     <t>Girl lemme fuck you back
 Girl lemme fuck you backI know it's late, I know it's late
 And baby I can't focus (focus, focus, focus...)
@@ -5634,12 +5697,6 @@
 (Fuck you back to sleep girl)
 Call sick in the morning
 So I can get a little bit more of your love</t>
-  </si>
-  <si>
-    <t>No Limit</t>
-  </si>
-  <si>
-    <t>Usher Featuring Young Thug</t>
   </si>
   <si>
     <t>Make you say uh, no limit
@@ -5736,15 +5793,6 @@
 There's no limit baby</t>
   </si>
   <si>
-    <t>Cut It</t>
-  </si>
-  <si>
-    <t>O.T. Genasis Featuring Young Dolph</t>
-  </si>
-  <si>
-    <t>Really Really</t>
-  </si>
-  <si>
     <t>Diamonds really diamonds
 And I'm shining bright 'cause I'm really grindin'
 They ask me if I'm real, I say "is you serious?"My daughter gon' love this bitch here
@@ -5825,12 +5873,6 @@
 Really really</t>
   </si>
   <si>
-    <t>All In My Head (Flex)</t>
-  </si>
-  <si>
-    <t>Fifth Harmony Featuring Fetty Wap</t>
-  </si>
-  <si>
     <t>Flex, time to impress
 Come and climb in my bed
 Don't be shy, do your thingIt's all in my head
@@ -5899,12 +5941,6 @@
 It's all in my head</t>
   </si>
   <si>
-    <t>Starving</t>
-  </si>
-  <si>
-    <t>Hailee Steinfeld &amp; Grey Featuring Zedd</t>
-  </si>
-  <si>
     <t>You know just what to say, things that scare me
 I should just walk away, but I can't move my feet
 The more that I know you, the more that I want toSomething inside me's changed
@@ -5934,9 +5970,6 @@
 The more that I know you, the more that I want to
 Something inside me's changed
 I was so much younger yesterday</t>
-  </si>
-  <si>
-    <t>Adventure Of A Lifetime</t>
   </si>
   <si>
     <t>Turn your magic on
@@ -6000,12 +6033,6 @@
 Ooh</t>
   </si>
   <si>
-    <t>Humble And Kind</t>
-  </si>
-  <si>
-    <t>Tim McGraw</t>
-  </si>
-  <si>
     <t>You know there's a light that glows by the front door
 Don't forget the key's under the mat
 When childhood stars shineAlways stay humble and kind
@@ -6045,12 +6072,6 @@
 When you get where you're going don't forget turn back around
 And help the next one in line
 Always stay humble and kind</t>
-  </si>
-  <si>
-    <t>Wicked</t>
-  </si>
-  <si>
-    <t>Future</t>
   </si>
   <si>
     <t>Wicked tunes, you know what I'm sayin'?
@@ -6102,9 +6123,6 @@
 Stand up in the motor, bust the dashboard
 Wicked, wicked, wicked, wicked, wicked
 Hold up, wicked, wicked, wicked, wicked</t>
-  </si>
-  <si>
-    <t>Tiimmy Turner</t>
   </si>
   <si>
     <t>Timmy, Timmy, Timmy Turner
@@ -6230,12 +6248,6 @@
 Timmy, Timmy, Timmy Turner</t>
   </si>
   <si>
-    <t>See You Again</t>
-  </si>
-  <si>
-    <t>Wiz Khalifa Featuring Charlie Puth</t>
-  </si>
-  <si>
     <t>It's been a long day without you, my friend
 And I'll tell you all about it when I see you again
 We've come a long way from where we beganOh, I'll tell you all about it when I see you again
@@ -6286,12 +6298,6 @@
 See you again (Yeah, yeah, yeah)
 Ooh-ooh (Uh-huh, yup)
 When I see you again</t>
-  </si>
-  <si>
-    <t>Perfect</t>
-  </si>
-  <si>
-    <t>One Direction</t>
   </si>
   <si>
     <t>I might never be your knight in shining armour
@@ -6348,16 +6354,305 @@
 Baby, you're perfect
 So let's start right now</t>
   </si>
+  <si>
+    <t>I took a pill in Ibiza
+To show Avicii I was cool
+And when I finally got sober, felt ten years older
+But fuck it, it was something to do
+I'm living out in LA
+I drive a sports car just to prove
+I'm a real big baller 'cause I made a million dollars
+And I spend it on girls and shoes
+But you don't wanna be high like me
+Never really knowing why like me
+You don't ever wanna step off that roller coaster and be all alone
+You don't wanna ride the bus like this
+Never knowing who to trust like this
+You don't wanna be stuck up on that stage singing
+Stuck up on that stage singing
+All I know are sad songs, sad songs
+Darling, all I know are sad songs, sad songs
+I'm just a singer who already blew his shot
+I get along with old timers
+'Cause my name's a reminder of a pop song people forgot
+And I can't keep a girl, no
+'Cause as soon as the sun comes up
+I cut 'em all loose and work's my excuse
+But the truth is I can't open up
+Now you don't wanna be high like me
+Never really knowing why like me
+You don't ever wanna step off that roller coaster and be all alone
+You don't wanna ride the bus like this
+Never knowing who to trust like this
+You don't wanna be stuck up on that stage singing
+Stuck up on that stage singing
+All I know are sad songs, sad songs
+Darling, all I know are sad songs, sad songs
+I took a plane to my home town
+I brought my pride and my guitar
+All my friends are all gone but there's manicured lawns
+And the people still think I'm a star
+I walked around downtown
+I met some fans on Lafa</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>We don't talk anymore
+We don't talk anymore
+We don't talk anymore
+Like we used to do
+We don't love anymore
+What was all of it for?
+Oh, we don't talk anymore
+Like we used to do
+I just heard you found the one you've been looking
+You've been looking for
+I wish I would have known that wasn't me
+'Cause even after all this time, I still wonder
+Why I can't move on
+Just the way you did so easily
+Don't wanna know
+Kind of dress you're wearing tonight
+If he's holding onto you so tight
+The way I did before
+I overdosed
+Should've known your love was a game
+Now I can't get you out of my brain
+Oh, it's such a shame
+That we don't talk anymore
+We don't talk anymore
+We don't talk anymore
+Like we used to do
+We don't love anymore
+What was all of it for?
+Oh, we don't talk anymore
+Like we used to do
+I just hope you're lying next to somebody
+Who knows how to love you like me
+There must be a good reason that you're gone
+Every now and then I think you might want me to
+Come show up at your door
+But I'm just too afraid that I'll be wrong
+Don't wanna know
+If you're looking into her eyes
+If she's holding onto you so tight
+The way I did before
+I overdosed
+Should've known your love was a game
+Now I can't get you out of my brain
+Oh, it's such a shame
+That we don't talk anymore
+We don't talk anymore
+We don't talk anymore
+Like we used to do
+We don't love anymore
+What was all of it for?
+Oh, we don't talk anymore
+Like we used to do
+Like we used to do
+Don't wanna know
+Kind of dress you're wearing tonight
+If he's giving it to you just right
+The way I did before
+I overdosed
+Should've known your love was a game
+Now I can't get you out of my brain
+Oh, it's such a shame
+That we don't talk anymore
+We don't talk anymore
+We don't talk anymore
+Like we used to do
+We don't love anymore
+What was all of it for?
+Oh, we don't talk anymore
+Like we used to do
+We don't talk anymore (don't wanna know)
+Kind of dress you're wearing tonight (oh)
+If he's holding onto you so tight (oh)
+The way I did before
+We don't talk anymore (I overdosed)
+Should've known your love was a game (oh)
+Now I can't get you out of my brain (whoa)
+Oh, it's such a shame
+That we don't talk anymore</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Watch Me</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>You already know who it is
+Silentó
+Silentó
+Silentó
+Gonna do it for me
+Now watch me whip (Kill it!)
+Now watch me nae nae (Okay!)
+Now watch me whip whip
+Watch me nae nae (Want me do it?)
+Now watch me whip (Kill it!)
+Watch me nae nae (Okay!)
+Now watch me whip whip
+Watch me nae nae (Can you do it?)
+Now watch me
+Ooh watch me, watch me
+Ooh watch me, watch me
+Ooh watch me, watch me
+Ooh ooh ooh ooh
+Ooh watch me, watch me
+Ooh watch me, watch me
+Ooh watch me, watch me
+Ooh ooh ooh ooh
+Do the stanky leg (stank)
+Do the stanky leg (stank stank)
+Do the stanky leg (stank)
+Do the stanky leg (stank stank)
+Do the stanky leg (stank)
+Do the stanky leg (stank stank)
+Do the stanky leg (stank)
+Do the stanky leg (stank stank)
+Now break your legs (break 'em, break 'em)
+Break your legs (break 'em dog)
+Tell 'em "break your legs" (break 'em, break 'em)
+Break your legs (break 'em dog)
+Tell 'em "break your legs" (break 'em, break 'em)
+Break your legs (break 'em dog)
+Tell 'em "break your legs" (break 'em, break 'em)
+Break your legs (break 'em dog)
+Now watch me
+Bop bop bop bop bop bop bop bop bop
+Now watch me
+Bop bop bop bop bop bop bop bop bop
+Now watch me whip (Kill it!)
+Now watch me nae nae (Okay!)
+Now watch me whip whip
+Watch me nae nae (Want me do it?)
+Now watch me whip (Kill it!)
+Watch me nae nae (Okay!)
+Now watch me whip whip
+Watch me nae nae (Can you do it?)
+Now watch me
+Ooh watch me, watch me
+Ooh watch me, watch me
+Ooh watch me, watch me
+Ooh ooh ooh ooh
+Ooh watch me, watch me
+Ooh watch me, watch me
+Ooh watch me, watch me
+Ooh ooh ooh ooh
+Now watch me yule (Soulja)
+Now watch me superman (okay!)
+Now watch me yule (Soulja)
+Now watch me superman (okay!)
+Now watch me yule (Soulja)
+Now watch me superman (okay!)
+Now watch me yule (Soulja)
+Now watch me superman (okay!)
+Now watch me duff, duff, duff, duff, duff, duff, duff, duff (Hold on)
+Now watch me duff, duff, duff, duff, duff, duff, duff, duff, duff
+Now watch me
+Bop bop bop bop bop bop bop bop bop
+Now watch me
+Bop bop bop bop bop bop bop bop bop
+Now watch me whip (Kill it!)
+Now watch me nae nae (Okay!)
+Now watch me whip whip
+Watch me nae nae (Want me do it?)
+Now watch me whip (Kill it!)
+Watch me nae nae (Okay!)
+Now watch me whip whip
+Watch me nae nae (Can you do it?)
+Now watch me
+Ooh watch me, watch me
+Ooh watch me, watch me
+Ooh watch me, watch me
+Ooh ooh ooh ooh
+Ooh watch me, watch me
+Ooh watch me, watch me
+Ooh watch me, watch me
+Ooh ooh ooh ooh
+Crank dat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cut it, cut it, cut it, cut it
+Cut it, cut it, cut it, cut it
+Them bricks is way too hot, you need to cut it
+Your price is way too high, you need to cut it
+Cut it, cut it, cut it, cut it
+Cut it, cut it, cut it, cut it
+Them bricks is way too hot, you need to cut it
+Your price is way too high, you need to cut it
+Run up them bands on the regular
+Hittin' my plug on the celly, yeah
+Tell my ex bitch that I'm sorry
+I'm a skate off in the 'Rari
+Keep 36 by my side
+I'm a go bake me a pie
+Keep 45 on my side
+Fuck with my niggas, you die
+All of my niggas say blood
+All of my niggas say cuh
+OT, I found me a plug
+I got it straight out the mud
+Keep it a hundred, no budge
+I fell in love with the drugs
+Bustin' it down in the tub
+Pay me my money in dubs
+Water whippin', lookin' like I'm fishin'
+Baseball in kitchen, with my arm I'm pitchin'
+Rolie on, it's glistenin', now my doner kissin'
+Niggas steady trippin' so I'm steady grippin'
+Dirty money on me, got a scale up on me
+I don't fuck with phony, 'bout to sell a pony
+All these niggas on me, all these bitches on me
+Say my price is good, motherfucker, show me
+Cut it, cut it, cut it, cut it
+Cut it, cut it, cut it, cut it
+Them bricks is way too hot, you need to cut it
+Your price is way too high, you need to cut it
+Cut it, cut it, cut it, cut it
+Cut it, cut it, cut it, cut it
+Them bricks is way too hot, you need to cut it
+Your price is way too high, you need to cut it
+Went and bought a 911 with my trap money
+A million up but still ain't never touch my rap money
+I'm out in LA fuckin' with that boy OT
+Flew to LA, got a plug on that OG
+You know I've been gettin' money if you know me
+When I first met my plug, I tote my pistol, hundred Gs
+I ain't comin' to get it unless you got a hundred piece
+I don't want it, fuck it, your price, you need to cut it
+Your ice, you need to tuck it, she fuck with me, she lucky
+A half a million, all 20s in that Gucci luggage
+Let's skip the small talk, it's time to talk numbers
+Young nigga playin' with commas, might go get a Lamb for the summer
+I've been outchea in these streets all my life hustlin'
+My nigga beefin' then I'm beefin', wrong or right I'm bustin'
+My traphouse, I love it
+Put some Forces on my old school and I had to cut it
+But should I put a roof in?
+Cut it, cut it, cut it, cut it
+Cut it, cut it, cut it, cut it
+Them bricks is way too hot, you need to cut it
+Your price is way too high, you need to cut it
+Cut it, cut it, cut it, cut it
+Cut it, cut it, cut it, cut it
+Them bricks is way too hot, you need to cut it
+Your price is way too high, you need to cut it</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -6365,8 +6660,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -6378,7 +6680,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -6386,24 +6688,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -6445,7 +6773,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6477,9 +6805,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6511,6 +6857,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -6686,1085 +7050,1689 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C99"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A2" s="1">
+        <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E2">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
+      <c r="C3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D4" t="s">
+        <v>182</v>
+      </c>
+      <c r="E4">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D5" t="s">
+        <v>183</v>
+      </c>
+      <c r="E5">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
+      <c r="C6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6" t="s">
+        <v>184</v>
+      </c>
+      <c r="E6">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D7" t="s">
+        <v>185</v>
+      </c>
+      <c r="E7">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D8" t="s">
+        <v>186</v>
+      </c>
+      <c r="E8">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
+      <c r="C9" t="s">
+        <v>107</v>
+      </c>
+      <c r="D9" t="s">
+        <v>187</v>
+      </c>
+      <c r="E9">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D10" t="s">
+        <v>188</v>
+      </c>
+      <c r="E10">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C11" t="s">
+        <v>109</v>
+      </c>
+      <c r="D11" t="s">
+        <v>189</v>
+      </c>
+      <c r="E11">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
+      <c r="C12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D12" t="s">
+        <v>190</v>
+      </c>
+      <c r="E12">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
         <v>15</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D13" t="s">
+        <v>191</v>
+      </c>
+      <c r="E13">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
         <v>16</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D14" t="s">
+        <v>192</v>
+      </c>
+      <c r="E14">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
+      <c r="C15" t="s">
+        <v>113</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E15">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
         <v>18</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C16" t="s">
+        <v>114</v>
+      </c>
+      <c r="D16" t="s">
+        <v>193</v>
+      </c>
+      <c r="E16">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
         <v>19</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C17" t="s">
+        <v>115</v>
+      </c>
+      <c r="D17" t="s">
+        <v>194</v>
+      </c>
+      <c r="E17">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
+      <c r="C18" t="s">
+        <v>116</v>
+      </c>
+      <c r="D18" t="s">
+        <v>195</v>
+      </c>
+      <c r="E18">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
         <v>21</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C19" t="s">
+        <v>117</v>
+      </c>
+      <c r="E19">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C20" t="s">
+        <v>103</v>
+      </c>
+      <c r="D20" t="s">
+        <v>196</v>
+      </c>
+      <c r="E20">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
+      <c r="C21" t="s">
+        <v>103</v>
+      </c>
+      <c r="D21" t="s">
+        <v>197</v>
+      </c>
+      <c r="E21">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
         <v>24</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C22" t="s">
+        <v>118</v>
+      </c>
+      <c r="D22" t="s">
+        <v>198</v>
+      </c>
+      <c r="E22">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
         <v>25</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C23" t="s">
+        <v>119</v>
+      </c>
+      <c r="D23" t="s">
+        <v>199</v>
+      </c>
+      <c r="E23">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
+      <c r="C24" t="s">
+        <v>120</v>
+      </c>
+      <c r="D24" t="s">
+        <v>200</v>
+      </c>
+      <c r="E24">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
         <v>27</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C25" t="s">
+        <v>121</v>
+      </c>
+      <c r="D25" t="s">
+        <v>201</v>
+      </c>
+      <c r="E25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
         <v>28</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C26" t="s">
+        <v>105</v>
+      </c>
+      <c r="D26" t="s">
+        <v>202</v>
+      </c>
+      <c r="E26">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
+      <c r="C27" t="s">
+        <v>122</v>
+      </c>
+      <c r="D27" t="s">
+        <v>203</v>
+      </c>
+      <c r="E27">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
         <v>30</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C28" t="s">
+        <v>119</v>
+      </c>
+      <c r="D28" t="s">
+        <v>204</v>
+      </c>
+      <c r="E28">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
         <v>31</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C29" t="s">
+        <v>123</v>
+      </c>
+      <c r="D29" t="s">
+        <v>205</v>
+      </c>
+      <c r="E29">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
+      <c r="C30" t="s">
+        <v>124</v>
+      </c>
+      <c r="D30" t="s">
+        <v>206</v>
+      </c>
+      <c r="E30">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
         <v>33</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C31" t="s">
+        <v>100</v>
+      </c>
+      <c r="D31" t="s">
+        <v>207</v>
+      </c>
+      <c r="E31">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
         <v>34</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C32" t="s">
+        <v>125</v>
+      </c>
+      <c r="D32" t="s">
+        <v>208</v>
+      </c>
+      <c r="E32">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
+      <c r="C33" t="s">
+        <v>126</v>
+      </c>
+      <c r="D33" t="s">
+        <v>209</v>
+      </c>
+      <c r="E33">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
         <v>36</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C34" t="s">
+        <v>127</v>
+      </c>
+      <c r="D34" t="s">
+        <v>210</v>
+      </c>
+      <c r="E34">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
         <v>37</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C35" t="s">
+        <v>128</v>
+      </c>
+      <c r="D35" t="s">
+        <v>211</v>
+      </c>
+      <c r="E35">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
+      <c r="C36" t="s">
+        <v>129</v>
+      </c>
+      <c r="D36" t="s">
+        <v>212</v>
+      </c>
+      <c r="E36">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
         <v>39</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C37" t="s">
+        <v>130</v>
+      </c>
+      <c r="D37" t="s">
+        <v>213</v>
+      </c>
+      <c r="E37">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
         <v>40</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C38" t="s">
+        <v>131</v>
+      </c>
+      <c r="D38" t="s">
+        <v>214</v>
+      </c>
+      <c r="E38">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+      <c r="C39" t="s">
+        <v>132</v>
+      </c>
+      <c r="D39" t="s">
+        <v>215</v>
+      </c>
+      <c r="E39">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
         <v>42</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C40" t="s">
+        <v>133</v>
+      </c>
+      <c r="D40" t="s">
+        <v>216</v>
+      </c>
+      <c r="E40">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
+      <c r="C41" t="s">
+        <v>120</v>
+      </c>
+      <c r="D41" t="s">
+        <v>217</v>
+      </c>
+      <c r="E41">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
         <v>44</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C42" t="s">
+        <v>134</v>
+      </c>
+      <c r="D42" t="s">
+        <v>218</v>
+      </c>
+      <c r="E42">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
         <v>45</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C43" t="s">
+        <v>135</v>
+      </c>
+      <c r="D43" t="s">
+        <v>219</v>
+      </c>
+      <c r="E43">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
+      <c r="C44" t="s">
+        <v>136</v>
+      </c>
+      <c r="D44" t="s">
+        <v>220</v>
+      </c>
+      <c r="E44">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
         <v>47</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C45" t="s">
+        <v>137</v>
+      </c>
+      <c r="D45" t="s">
+        <v>221</v>
+      </c>
+      <c r="E45">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
         <v>48</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C46" t="s">
+        <v>138</v>
+      </c>
+      <c r="D46" t="s">
+        <v>222</v>
+      </c>
+      <c r="E46">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
+      <c r="C47" t="s">
+        <v>139</v>
+      </c>
+      <c r="D47" t="s">
+        <v>223</v>
+      </c>
+      <c r="E47">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
         <v>50</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C48" t="s">
+        <v>140</v>
+      </c>
+      <c r="D48" t="s">
+        <v>224</v>
+      </c>
+      <c r="E48">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
         <v>51</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C49" t="s">
+        <v>141</v>
+      </c>
+      <c r="D49" t="s">
+        <v>225</v>
+      </c>
+      <c r="E49">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
+      <c r="C50" t="s">
+        <v>142</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="E50">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
         <v>53</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C51" t="s">
+        <v>129</v>
+      </c>
+      <c r="D51" t="s">
+        <v>226</v>
+      </c>
+      <c r="E51">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
+      <c r="C52" t="s">
+        <v>143</v>
+      </c>
+      <c r="D52" t="s">
+        <v>227</v>
+      </c>
+      <c r="E52">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
         <v>55</v>
       </c>
-      <c r="B20" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="C53" t="s">
+        <v>128</v>
+      </c>
+      <c r="D53" t="s">
+        <v>228</v>
+      </c>
+      <c r="E53">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
+      <c r="C54" t="s">
+        <v>144</v>
+      </c>
+      <c r="D54" t="s">
+        <v>229</v>
+      </c>
+      <c r="E54">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
         <v>57</v>
       </c>
-      <c r="B21" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="C55" t="s">
+        <v>145</v>
+      </c>
+      <c r="D55" t="s">
+        <v>230</v>
+      </c>
+      <c r="E55">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
+      <c r="C56" t="s">
+        <v>133</v>
+      </c>
+      <c r="D56" t="s">
+        <v>231</v>
+      </c>
+      <c r="E56">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
         <v>59</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C57" t="s">
+        <v>146</v>
+      </c>
+      <c r="D57" t="s">
+        <v>232</v>
+      </c>
+      <c r="E57">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
         <v>60</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C58" t="s">
+        <v>147</v>
+      </c>
+      <c r="D58" t="s">
+        <v>233</v>
+      </c>
+      <c r="E58">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
+      <c r="C59" t="s">
+        <v>148</v>
+      </c>
+      <c r="D59" t="s">
+        <v>234</v>
+      </c>
+      <c r="E59">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
         <v>62</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C60" t="s">
+        <v>149</v>
+      </c>
+      <c r="D60" t="s">
+        <v>235</v>
+      </c>
+      <c r="E60">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
         <v>63</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C61" t="s">
+        <v>125</v>
+      </c>
+      <c r="D61" t="s">
+        <v>236</v>
+      </c>
+      <c r="E61">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
+      <c r="C62" t="s">
+        <v>137</v>
+      </c>
+      <c r="D62" t="s">
+        <v>237</v>
+      </c>
+      <c r="E62">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
         <v>65</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C63" t="s">
+        <v>150</v>
+      </c>
+      <c r="D63" t="s">
+        <v>238</v>
+      </c>
+      <c r="E63">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
         <v>66</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C64" t="s">
+        <v>151</v>
+      </c>
+      <c r="D64" t="s">
+        <v>239</v>
+      </c>
+      <c r="E64">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
+      <c r="C65" t="s">
+        <v>152</v>
+      </c>
+      <c r="D65" t="s">
+        <v>240</v>
+      </c>
+      <c r="E65">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
         <v>68</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C66" t="s">
+        <v>153</v>
+      </c>
+      <c r="D66" t="s">
+        <v>241</v>
+      </c>
+      <c r="E66">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
         <v>69</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C67" t="s">
+        <v>154</v>
+      </c>
+      <c r="D67" t="s">
+        <v>242</v>
+      </c>
+      <c r="E67">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
+      <c r="C68" t="s">
+        <v>155</v>
+      </c>
+      <c r="D68" t="s">
+        <v>243</v>
+      </c>
+      <c r="E68">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
         <v>71</v>
       </c>
-      <c r="B26" t="s">
-        <v>19</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="C69" t="s">
+        <v>156</v>
+      </c>
+      <c r="E69">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
+      <c r="C70" t="s">
+        <v>157</v>
+      </c>
+      <c r="D70" t="s">
+        <v>244</v>
+      </c>
+      <c r="E70">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>4</v>
+      </c>
+      <c r="C71" t="s">
+        <v>158</v>
+      </c>
+      <c r="D71" t="s">
+        <v>245</v>
+      </c>
+      <c r="E71">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
         <v>73</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C72" t="s">
+        <v>125</v>
+      </c>
+      <c r="D72" t="s">
+        <v>246</v>
+      </c>
+      <c r="E72">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
         <v>74</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C73" t="s">
+        <v>159</v>
+      </c>
+      <c r="D73" t="s">
+        <v>247</v>
+      </c>
+      <c r="E73">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
+      <c r="C74" t="s">
+        <v>157</v>
+      </c>
+      <c r="D74" t="s">
+        <v>248</v>
+      </c>
+      <c r="E74">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
         <v>76</v>
       </c>
-      <c r="B28" t="s">
-        <v>63</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="C75" t="s">
+        <v>160</v>
+      </c>
+      <c r="D75" t="s">
+        <v>249</v>
+      </c>
+      <c r="E75">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
+      <c r="C76" t="s">
+        <v>161</v>
+      </c>
+      <c r="D76" t="s">
+        <v>250</v>
+      </c>
+      <c r="E76">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
         <v>78</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C77" t="s">
+        <v>162</v>
+      </c>
+      <c r="D77" t="s">
+        <v>251</v>
+      </c>
+      <c r="E77">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
         <v>79</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C78" t="s">
+        <v>163</v>
+      </c>
+      <c r="D78" t="s">
+        <v>252</v>
+      </c>
+      <c r="E78">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
+      <c r="C79" t="s">
+        <v>164</v>
+      </c>
+      <c r="D79" t="s">
+        <v>253</v>
+      </c>
+      <c r="E79">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
         <v>81</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C80" t="s">
+        <v>165</v>
+      </c>
+      <c r="D80" t="s">
+        <v>254</v>
+      </c>
+      <c r="E80">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
         <v>82</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C81" t="s">
+        <v>166</v>
+      </c>
+      <c r="D81" t="s">
+        <v>255</v>
+      </c>
+      <c r="E81">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
+      <c r="C82" t="s">
+        <v>167</v>
+      </c>
+      <c r="D82" t="s">
+        <v>256</v>
+      </c>
+      <c r="E82">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
         <v>84</v>
       </c>
-      <c r="B31" t="s">
-        <v>4</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="C83" t="s">
+        <v>105</v>
+      </c>
+      <c r="D83" t="s">
+        <v>257</v>
+      </c>
+      <c r="E83">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
+      <c r="C84" t="s">
+        <v>163</v>
+      </c>
+      <c r="D84" t="s">
+        <v>258</v>
+      </c>
+      <c r="E84">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
         <v>86</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C85" t="s">
+        <v>168</v>
+      </c>
+      <c r="D85" t="s">
+        <v>259</v>
+      </c>
+      <c r="E85">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
         <v>87</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C86" t="s">
+        <v>169</v>
+      </c>
+      <c r="D86" t="s">
+        <v>260</v>
+      </c>
+      <c r="E86">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>274</v>
+      </c>
+      <c r="C87" t="s">
+        <v>170</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="E87">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
+      <c r="C88" t="s">
+        <v>171</v>
+      </c>
+      <c r="D88" t="s">
+        <v>261</v>
+      </c>
+      <c r="E88">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
         <v>89</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C89" t="s">
+        <v>172</v>
+      </c>
+      <c r="D89" t="s">
+        <v>262</v>
+      </c>
+      <c r="E89">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
         <v>90</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C90" t="s">
+        <v>173</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="E90">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="s">
+      <c r="C91" t="s">
+        <v>146</v>
+      </c>
+      <c r="D91" t="s">
+        <v>263</v>
+      </c>
+      <c r="E91">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
         <v>92</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C92" t="s">
+        <v>174</v>
+      </c>
+      <c r="D92" t="s">
+        <v>264</v>
+      </c>
+      <c r="E92">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
         <v>93</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C93" t="s">
+        <v>175</v>
+      </c>
+      <c r="D93" t="s">
+        <v>265</v>
+      </c>
+      <c r="E93">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" t="s">
+      <c r="C94" t="s">
+        <v>159</v>
+      </c>
+      <c r="D94" t="s">
+        <v>266</v>
+      </c>
+      <c r="E94">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
         <v>95</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C95" t="s">
+        <v>176</v>
+      </c>
+      <c r="D95" t="s">
+        <v>267</v>
+      </c>
+      <c r="E95">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
         <v>96</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C96" t="s">
+        <v>177</v>
+      </c>
+      <c r="D96" t="s">
+        <v>268</v>
+      </c>
+      <c r="E96">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" t="s">
+      <c r="C97" t="s">
+        <v>104</v>
+      </c>
+      <c r="D97" t="s">
+        <v>269</v>
+      </c>
+      <c r="E97">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
         <v>98</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C98" t="s">
+        <v>178</v>
+      </c>
+      <c r="D98" t="s">
+        <v>270</v>
+      </c>
+      <c r="E98">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
         <v>99</v>
       </c>
-      <c r="C36" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" t="s">
-        <v>101</v>
-      </c>
-      <c r="B37" t="s">
-        <v>102</v>
-      </c>
-      <c r="C37" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" t="s">
-        <v>104</v>
-      </c>
-      <c r="B38" t="s">
-        <v>105</v>
-      </c>
-      <c r="C38" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" t="s">
-        <v>107</v>
-      </c>
-      <c r="B39" t="s">
-        <v>108</v>
-      </c>
-      <c r="C39" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" t="s">
-        <v>110</v>
-      </c>
-      <c r="B40" t="s">
-        <v>111</v>
-      </c>
-      <c r="C40" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" t="s">
-        <v>113</v>
-      </c>
-      <c r="B41" t="s">
-        <v>66</v>
-      </c>
-      <c r="C41" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" t="s">
-        <v>115</v>
-      </c>
-      <c r="B42" t="s">
-        <v>116</v>
-      </c>
-      <c r="C42" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" t="s">
-        <v>118</v>
-      </c>
-      <c r="B43" t="s">
-        <v>119</v>
-      </c>
-      <c r="C43" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" t="s">
-        <v>121</v>
-      </c>
-      <c r="B44" t="s">
-        <v>122</v>
-      </c>
-      <c r="C44" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" t="s">
-        <v>124</v>
-      </c>
-      <c r="B45" t="s">
-        <v>125</v>
-      </c>
-      <c r="C45" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" t="s">
-        <v>127</v>
-      </c>
-      <c r="B46" t="s">
-        <v>128</v>
-      </c>
-      <c r="C46" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" t="s">
-        <v>130</v>
-      </c>
-      <c r="B47" t="s">
-        <v>131</v>
-      </c>
-      <c r="C47" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" t="s">
-        <v>133</v>
-      </c>
-      <c r="B48" t="s">
-        <v>134</v>
-      </c>
-      <c r="C48" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" t="s">
-        <v>136</v>
-      </c>
-      <c r="B49" t="s">
-        <v>137</v>
-      </c>
-      <c r="C49" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" t="s">
-        <v>139</v>
-      </c>
-      <c r="B50" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" t="s">
-        <v>141</v>
-      </c>
-      <c r="B51" t="s">
-        <v>99</v>
-      </c>
-      <c r="C51" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" t="s">
-        <v>143</v>
-      </c>
-      <c r="B52" t="s">
-        <v>144</v>
-      </c>
-      <c r="C52" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" t="s">
-        <v>146</v>
-      </c>
-      <c r="B53" t="s">
-        <v>96</v>
-      </c>
-      <c r="C53" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" t="s">
-        <v>148</v>
-      </c>
-      <c r="B54" t="s">
-        <v>149</v>
-      </c>
-      <c r="C54" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" t="s">
-        <v>151</v>
-      </c>
-      <c r="B55" t="s">
-        <v>152</v>
-      </c>
-      <c r="C55" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" t="s">
-        <v>154</v>
-      </c>
-      <c r="B56" t="s">
-        <v>111</v>
-      </c>
-      <c r="C56" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" t="s">
-        <v>156</v>
-      </c>
-      <c r="B57" t="s">
-        <v>157</v>
-      </c>
-      <c r="C57" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" t="s">
-        <v>159</v>
-      </c>
-      <c r="B58" t="s">
-        <v>160</v>
-      </c>
-      <c r="C58" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" t="s">
-        <v>162</v>
-      </c>
-      <c r="B59" t="s">
-        <v>163</v>
-      </c>
-      <c r="C59" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" t="s">
-        <v>165</v>
-      </c>
-      <c r="B60" t="s">
-        <v>166</v>
-      </c>
-      <c r="C60" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" t="s">
-        <v>168</v>
-      </c>
-      <c r="B61" t="s">
-        <v>87</v>
-      </c>
-      <c r="C61" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" t="s">
-        <v>170</v>
-      </c>
-      <c r="B62" t="s">
-        <v>125</v>
-      </c>
-      <c r="C62" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" t="s">
-        <v>172</v>
-      </c>
-      <c r="B63" t="s">
-        <v>173</v>
-      </c>
-      <c r="C63" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" t="s">
-        <v>175</v>
-      </c>
-      <c r="B64" t="s">
-        <v>176</v>
-      </c>
-      <c r="C64" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" t="s">
-        <v>178</v>
-      </c>
-      <c r="B65" t="s">
+      <c r="C99" t="s">
         <v>179</v>
       </c>
-      <c r="C65" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" t="s">
-        <v>181</v>
-      </c>
-      <c r="B66" t="s">
-        <v>182</v>
-      </c>
-      <c r="C66" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" t="s">
-        <v>184</v>
-      </c>
-      <c r="B67" t="s">
-        <v>185</v>
-      </c>
-      <c r="C67" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" t="s">
-        <v>187</v>
-      </c>
-      <c r="B68" t="s">
-        <v>188</v>
-      </c>
-      <c r="C68" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" t="s">
-        <v>190</v>
-      </c>
-      <c r="B69" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" t="s">
-        <v>192</v>
-      </c>
-      <c r="B70" t="s">
-        <v>193</v>
-      </c>
-      <c r="C70" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" t="s">
-        <v>3</v>
-      </c>
-      <c r="B71" t="s">
-        <v>195</v>
-      </c>
-      <c r="C71" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" t="s">
-        <v>197</v>
-      </c>
-      <c r="B72" t="s">
-        <v>87</v>
-      </c>
-      <c r="C72" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" t="s">
-        <v>199</v>
-      </c>
-      <c r="B73" t="s">
-        <v>200</v>
-      </c>
-      <c r="C73" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" t="s">
-        <v>202</v>
-      </c>
-      <c r="B74" t="s">
-        <v>193</v>
-      </c>
-      <c r="C74" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" t="s">
-        <v>204</v>
-      </c>
-      <c r="B75" t="s">
-        <v>205</v>
-      </c>
-      <c r="C75" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" t="s">
-        <v>207</v>
-      </c>
-      <c r="B76" t="s">
-        <v>208</v>
-      </c>
-      <c r="C76" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" t="s">
-        <v>210</v>
-      </c>
-      <c r="B77" t="s">
-        <v>211</v>
-      </c>
-      <c r="C77" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" t="s">
-        <v>213</v>
-      </c>
-      <c r="B78" t="s">
-        <v>214</v>
-      </c>
-      <c r="C78" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" t="s">
-        <v>216</v>
-      </c>
-      <c r="B79" t="s">
-        <v>217</v>
-      </c>
-      <c r="C79" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" t="s">
-        <v>219</v>
-      </c>
-      <c r="B80" t="s">
-        <v>220</v>
-      </c>
-      <c r="C80" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" t="s">
-        <v>222</v>
-      </c>
-      <c r="B81" t="s">
-        <v>223</v>
-      </c>
-      <c r="C81" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" t="s">
-        <v>225</v>
-      </c>
-      <c r="B82" t="s">
-        <v>226</v>
-      </c>
-      <c r="C82" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" t="s">
-        <v>228</v>
-      </c>
-      <c r="B83" t="s">
-        <v>19</v>
-      </c>
-      <c r="C83" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" t="s">
-        <v>230</v>
-      </c>
-      <c r="B84" t="s">
-        <v>214</v>
-      </c>
-      <c r="C84" t="s">
+      <c r="D99" t="s">
+        <v>271</v>
+      </c>
+      <c r="E99">
         <v>231</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
-      <c r="A85" t="s">
-        <v>232</v>
-      </c>
-      <c r="B85" t="s">
-        <v>233</v>
-      </c>
-      <c r="C85" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" t="s">
-        <v>235</v>
-      </c>
-      <c r="B86" t="s">
-        <v>236</v>
-      </c>
-      <c r="C86" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" t="s">
-        <v>238</v>
-      </c>
-      <c r="B87" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" t="s">
-        <v>240</v>
-      </c>
-      <c r="B88" t="s">
-        <v>241</v>
-      </c>
-      <c r="C88" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89" t="s">
-        <v>243</v>
-      </c>
-      <c r="B89" t="s">
-        <v>244</v>
-      </c>
-      <c r="C89" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90" t="s">
-        <v>246</v>
-      </c>
-      <c r="B90" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" t="s">
-        <v>248</v>
-      </c>
-      <c r="B91" t="s">
-        <v>157</v>
-      </c>
-      <c r="C91" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92" t="s">
-        <v>250</v>
-      </c>
-      <c r="B92" t="s">
-        <v>251</v>
-      </c>
-      <c r="C92" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93" t="s">
-        <v>253</v>
-      </c>
-      <c r="B93" t="s">
-        <v>254</v>
-      </c>
-      <c r="C93" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="A94" t="s">
-        <v>256</v>
-      </c>
-      <c r="B94" t="s">
-        <v>200</v>
-      </c>
-      <c r="C94" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" t="s">
-        <v>258</v>
-      </c>
-      <c r="B95" t="s">
-        <v>259</v>
-      </c>
-      <c r="C95" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" t="s">
-        <v>261</v>
-      </c>
-      <c r="B96" t="s">
-        <v>262</v>
-      </c>
-      <c r="C96" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97" t="s">
-        <v>264</v>
-      </c>
-      <c r="B97" t="s">
-        <v>16</v>
-      </c>
-      <c r="C97" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98" t="s">
-        <v>266</v>
-      </c>
-      <c r="B98" t="s">
-        <v>267</v>
-      </c>
-      <c r="C98" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99" t="s">
-        <v>269</v>
-      </c>
-      <c r="B99" t="s">
-        <v>270</v>
-      </c>
-      <c r="C99" t="s">
-        <v>271</v>
-      </c>
-    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>